--- a/Project6Data.xlsx
+++ b/Project6Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khoi Trinh\OU_DSA\Fall2022\DSA5005\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khoi Trinh\OU_DSA\Fall2022\DSA5005\Project6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034773D3-37FD-4603-8F93-DD0F1DC103CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD02E4F-E821-477A-88F7-4318F9E44498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{AB3326FC-6CE2-4AD3-A653-2AD030C86E92}"/>
   </bookViews>
@@ -811,7 +811,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Chebysev</a:t>
+              <a:t>Chebyshev</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -1472,7 +1472,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Chebysev Distance</a:t>
+              <a:t>Chebyshev Distance</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -2776,7 +2776,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Chebysev</a:t>
+              <a:t>Chebyshev</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -4049,7 +4049,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Chebysev</a:t>
+              <a:t>Chebyshev</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -5322,7 +5322,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Chebysev</a:t>
+              <a:t>Chebyshev</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -12836,8 +12836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E338B0-0EF4-4681-8463-7458DD819D9B}">
   <dimension ref="A2:Y22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="R16" workbookViewId="0">
+      <selection activeCell="AK40" sqref="AK40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
